--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value468.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value468.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9955806914461742</v>
+        <v>0.8095266819000244</v>
       </c>
       <c r="B1">
-        <v>1.309999895096614</v>
+        <v>1.173882246017456</v>
       </c>
       <c r="C1">
-        <v>2.081781869913864</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.096422251664353</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.610152144843444</v>
+        <v>1.393808960914612</v>
       </c>
     </row>
   </sheetData>
